--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Unc5a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.20743568225588</v>
+        <v>1.227093333333333</v>
       </c>
       <c r="H2">
-        <v>1.20743568225588</v>
+        <v>3.68128</v>
       </c>
       <c r="I2">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="J2">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.38375276247034</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N2">
-        <v>0.38375276247034</v>
+        <v>1.395791</v>
       </c>
       <c r="O2">
-        <v>0.03220081687562579</v>
+        <v>0.03548877547730651</v>
       </c>
       <c r="P2">
-        <v>0.03220081687562579</v>
+        <v>0.03548877547730651</v>
       </c>
       <c r="Q2">
-        <v>0.4633567785709537</v>
+        <v>0.5709219436088889</v>
       </c>
       <c r="R2">
-        <v>0.4633567785709537</v>
+        <v>5.13829749248</v>
       </c>
       <c r="S2">
-        <v>0.001810152901770487</v>
+        <v>0.001848108065943732</v>
       </c>
       <c r="T2">
-        <v>0.001810152901770487</v>
+        <v>0.001848108065943732</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.20743568225588</v>
+        <v>1.227093333333333</v>
       </c>
       <c r="H3">
-        <v>1.20743568225588</v>
+        <v>3.68128</v>
       </c>
       <c r="I3">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="J3">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.41553729806602</v>
+        <v>1.416626</v>
       </c>
       <c r="N3">
-        <v>1.41553729806602</v>
+        <v>4.249878</v>
       </c>
       <c r="O3">
-        <v>0.1187781868258603</v>
+        <v>0.1080555514027132</v>
       </c>
       <c r="P3">
-        <v>0.1187781868258603</v>
+        <v>0.1080555514027132</v>
       </c>
       <c r="Q3">
-        <v>1.70917024324899</v>
+        <v>1.738332320426667</v>
       </c>
       <c r="R3">
-        <v>1.70917024324899</v>
+        <v>15.64499088384</v>
       </c>
       <c r="S3">
-        <v>0.006677056684006547</v>
+        <v>0.005627084435332234</v>
       </c>
       <c r="T3">
-        <v>0.006677056684006547</v>
+        <v>0.005627084435332234</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.20743568225588</v>
+        <v>1.227093333333333</v>
       </c>
       <c r="H4">
-        <v>1.20743568225588</v>
+        <v>3.68128</v>
       </c>
       <c r="I4">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="J4">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.920836136606808</v>
+        <v>1.120205333333333</v>
       </c>
       <c r="N4">
-        <v>0.920836136606808</v>
+        <v>3.360616</v>
       </c>
       <c r="O4">
-        <v>0.07726765435239391</v>
+        <v>0.08544556218620403</v>
       </c>
       <c r="P4">
-        <v>0.07726765435239391</v>
+        <v>0.08544556218620403</v>
       </c>
       <c r="Q4">
-        <v>1.11185040884971</v>
+        <v>1.374596496497778</v>
       </c>
       <c r="R4">
-        <v>1.11185040884971</v>
+        <v>12.37136846848</v>
       </c>
       <c r="S4">
-        <v>0.004343562751193923</v>
+        <v>0.004449650080950199</v>
       </c>
       <c r="T4">
-        <v>0.004343562751193923</v>
+        <v>0.004449650080950199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.20743568225588</v>
+        <v>1.227093333333333</v>
       </c>
       <c r="H5">
-        <v>1.20743568225588</v>
+        <v>3.68128</v>
       </c>
       <c r="I5">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="J5">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.02198372283493</v>
+        <v>1.043579</v>
       </c>
       <c r="N5">
-        <v>1.02198372283493</v>
+        <v>3.130737</v>
       </c>
       <c r="O5">
-        <v>0.08575498062094439</v>
+        <v>0.07960075861751234</v>
       </c>
       <c r="P5">
-        <v>0.08575498062094439</v>
+        <v>0.07960075861751234</v>
       </c>
       <c r="Q5">
-        <v>1.233979613635598</v>
+        <v>1.280568833706667</v>
       </c>
       <c r="R5">
-        <v>1.233979613635598</v>
+        <v>11.52511950336</v>
       </c>
       <c r="S5">
-        <v>0.004820673575202823</v>
+        <v>0.004145276980614204</v>
       </c>
       <c r="T5">
-        <v>0.004820673575202823</v>
+        <v>0.004145276980614204</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.20743568225588</v>
+        <v>1.227093333333333</v>
       </c>
       <c r="H6">
-        <v>1.20743568225588</v>
+        <v>3.68128</v>
       </c>
       <c r="I6">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="J6">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.67391341708231</v>
+        <v>7.109867</v>
       </c>
       <c r="N6">
-        <v>6.67391341708231</v>
+        <v>21.329601</v>
       </c>
       <c r="O6">
-        <v>0.5600102065815339</v>
+        <v>0.5423171670468806</v>
       </c>
       <c r="P6">
-        <v>0.5600102065815339</v>
+        <v>0.5423171670468806</v>
       </c>
       <c r="Q6">
-        <v>8.05832120007145</v>
+        <v>8.724470396586668</v>
       </c>
       <c r="R6">
-        <v>8.05832120007145</v>
+        <v>78.52023356928001</v>
       </c>
       <c r="S6">
-        <v>0.03148069517553049</v>
+        <v>0.02824162618290381</v>
       </c>
       <c r="T6">
-        <v>0.03148069517553049</v>
+        <v>0.02824162618290381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.20743568225588</v>
+        <v>1.227093333333333</v>
       </c>
       <c r="H7">
-        <v>1.20743568225588</v>
+        <v>3.68128</v>
       </c>
       <c r="I7">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="J7">
-        <v>0.05621450253147681</v>
+        <v>0.05207584767542949</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.50146198489797</v>
+        <v>1.954623</v>
       </c>
       <c r="N7">
-        <v>1.50146198489797</v>
+        <v>5.863868999999999</v>
       </c>
       <c r="O7">
-        <v>0.1259881547436416</v>
+        <v>0.1490921852693833</v>
       </c>
       <c r="P7">
-        <v>0.1259881547436416</v>
+        <v>0.1490921852693833</v>
       </c>
       <c r="Q7">
-        <v>1.812918776116548</v>
+        <v>2.39850485248</v>
       </c>
       <c r="R7">
-        <v>1.812918776116548</v>
+        <v>21.58654367232</v>
       </c>
       <c r="S7">
-        <v>0.007082361443772533</v>
+        <v>0.007764101929685319</v>
       </c>
       <c r="T7">
-        <v>0.007082361443772533</v>
+        <v>0.007764101929685319</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.94761449729779</v>
+        <v>5.978438666666666</v>
       </c>
       <c r="H8">
-        <v>5.94761449729779</v>
+        <v>17.935316</v>
       </c>
       <c r="I8">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="J8">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.38375276247034</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N8">
-        <v>0.38375276247034</v>
+        <v>1.395791</v>
       </c>
       <c r="O8">
-        <v>0.03220081687562579</v>
+        <v>0.03548877547730651</v>
       </c>
       <c r="P8">
-        <v>0.03220081687562579</v>
+        <v>0.03548877547730651</v>
       </c>
       <c r="Q8">
-        <v>2.28241349344667</v>
+        <v>2.781550294995111</v>
       </c>
       <c r="R8">
-        <v>2.28241349344667</v>
+        <v>25.033952654956</v>
       </c>
       <c r="S8">
-        <v>0.00891649286095411</v>
+        <v>0.009004042660392489</v>
       </c>
       <c r="T8">
-        <v>0.00891649286095411</v>
+        <v>0.009004042660392489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.94761449729779</v>
+        <v>5.978438666666666</v>
       </c>
       <c r="H9">
-        <v>5.94761449729779</v>
+        <v>17.935316</v>
       </c>
       <c r="I9">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="J9">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.41553729806602</v>
+        <v>1.416626</v>
       </c>
       <c r="N9">
-        <v>1.41553729806602</v>
+        <v>4.249878</v>
       </c>
       <c r="O9">
-        <v>0.1187781868258603</v>
+        <v>0.1080555514027132</v>
       </c>
       <c r="P9">
-        <v>0.1187781868258603</v>
+        <v>0.1080555514027132</v>
       </c>
       <c r="Q9">
-        <v>8.419070155443203</v>
+        <v>8.469211654605333</v>
       </c>
       <c r="R9">
-        <v>8.419070155443203</v>
+        <v>76.222904891448</v>
       </c>
       <c r="S9">
-        <v>0.03288999962207557</v>
+        <v>0.02741533855245055</v>
       </c>
       <c r="T9">
-        <v>0.03288999962207557</v>
+        <v>0.02741533855245055</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.94761449729779</v>
+        <v>5.978438666666666</v>
       </c>
       <c r="H10">
-        <v>5.94761449729779</v>
+        <v>17.935316</v>
       </c>
       <c r="I10">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="J10">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.920836136606808</v>
+        <v>1.120205333333333</v>
       </c>
       <c r="N10">
-        <v>0.920836136606808</v>
+        <v>3.360616</v>
       </c>
       <c r="O10">
-        <v>0.07726765435239391</v>
+        <v>0.08544556218620403</v>
       </c>
       <c r="P10">
-        <v>0.07726765435239391</v>
+        <v>0.08544556218620403</v>
       </c>
       <c r="Q10">
-        <v>5.47677835571834</v>
+        <v>6.697078879406222</v>
       </c>
       <c r="R10">
-        <v>5.47677835571834</v>
+        <v>60.273709914656</v>
       </c>
       <c r="S10">
-        <v>0.02139562145509704</v>
+        <v>0.02167884004782776</v>
       </c>
       <c r="T10">
-        <v>0.02139562145509704</v>
+        <v>0.02167884004782776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.94761449729779</v>
+        <v>5.978438666666666</v>
       </c>
       <c r="H11">
-        <v>5.94761449729779</v>
+        <v>17.935316</v>
       </c>
       <c r="I11">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="J11">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.02198372283493</v>
+        <v>1.043579</v>
       </c>
       <c r="N11">
-        <v>1.02198372283493</v>
+        <v>3.130737</v>
       </c>
       <c r="O11">
-        <v>0.08575498062094439</v>
+        <v>0.07960075861751234</v>
       </c>
       <c r="P11">
-        <v>0.08575498062094439</v>
+        <v>0.07960075861751234</v>
       </c>
       <c r="Q11">
-        <v>6.078365205935397</v>
+        <v>6.238973045321333</v>
       </c>
       <c r="R11">
-        <v>6.078365205935397</v>
+        <v>56.150757407892</v>
       </c>
       <c r="S11">
-        <v>0.0237457849423905</v>
+        <v>0.02019592439446106</v>
       </c>
       <c r="T11">
-        <v>0.0237457849423905</v>
+        <v>0.02019592439446106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.94761449729779</v>
+        <v>5.978438666666666</v>
       </c>
       <c r="H12">
-        <v>5.94761449729779</v>
+        <v>17.935316</v>
       </c>
       <c r="I12">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="J12">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.67391341708231</v>
+        <v>7.109867</v>
       </c>
       <c r="N12">
-        <v>6.67391341708231</v>
+        <v>21.329601</v>
       </c>
       <c r="O12">
-        <v>0.5600102065815339</v>
+        <v>0.5423171670468806</v>
       </c>
       <c r="P12">
-        <v>0.5600102065815339</v>
+        <v>0.5423171670468806</v>
       </c>
       <c r="Q12">
-        <v>39.69386419314898</v>
+        <v>42.50590378765733</v>
       </c>
       <c r="R12">
-        <v>39.69386419314898</v>
+        <v>382.553134088916</v>
       </c>
       <c r="S12">
-        <v>0.1550683334628493</v>
+        <v>0.1375941221380209</v>
       </c>
       <c r="T12">
-        <v>0.1550683334628493</v>
+        <v>0.1375941221380209</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.94761449729779</v>
+        <v>5.978438666666666</v>
       </c>
       <c r="H13">
-        <v>5.94761449729779</v>
+        <v>17.935316</v>
       </c>
       <c r="I13">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="J13">
-        <v>0.2769026914874136</v>
+        <v>0.2537152251463332</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.50146198489797</v>
+        <v>1.954623</v>
       </c>
       <c r="N13">
-        <v>1.50146198489797</v>
+        <v>5.863868999999999</v>
       </c>
       <c r="O13">
-        <v>0.1259881547436416</v>
+        <v>0.1490921852693833</v>
       </c>
       <c r="P13">
-        <v>0.1259881547436416</v>
+        <v>0.1490921852693833</v>
       </c>
       <c r="Q13">
-        <v>8.930117068520682</v>
+        <v>11.685593721956</v>
       </c>
       <c r="R13">
-        <v>8.930117068520682</v>
+        <v>105.170343497604</v>
       </c>
       <c r="S13">
-        <v>0.03488645914404712</v>
+        <v>0.03782695735318041</v>
       </c>
       <c r="T13">
-        <v>0.03488645914404712</v>
+        <v>0.03782695735318041</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>14.3240277786616</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H14">
-        <v>14.3240277786616</v>
+        <v>0.132086</v>
       </c>
       <c r="I14">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="J14">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.38375276247034</v>
+        <v>0.4652636666666667</v>
       </c>
       <c r="N14">
-        <v>0.38375276247034</v>
+        <v>1.395791</v>
       </c>
       <c r="O14">
-        <v>0.03220081687562579</v>
+        <v>0.03548877547730651</v>
       </c>
       <c r="P14">
-        <v>0.03220081687562579</v>
+        <v>0.03548877547730651</v>
       </c>
       <c r="Q14">
-        <v>5.496885229763278</v>
+        <v>0.02048493889177778</v>
       </c>
       <c r="R14">
-        <v>5.496885229763278</v>
+        <v>0.184364450026</v>
       </c>
       <c r="S14">
-        <v>0.02147417111290119</v>
+        <v>6.631095760122667E-05</v>
       </c>
       <c r="T14">
-        <v>0.02147417111290119</v>
+        <v>6.631095760122667E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>14.3240277786616</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H15">
-        <v>14.3240277786616</v>
+        <v>0.132086</v>
       </c>
       <c r="I15">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="J15">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.41553729806602</v>
+        <v>1.416626</v>
       </c>
       <c r="N15">
-        <v>1.41553729806602</v>
+        <v>4.249878</v>
       </c>
       <c r="O15">
-        <v>0.1187781868258603</v>
+        <v>0.1080555514027132</v>
       </c>
       <c r="P15">
-        <v>0.1187781868258603</v>
+        <v>0.1080555514027132</v>
       </c>
       <c r="Q15">
-        <v>20.27619557922926</v>
+        <v>0.06237215394533333</v>
       </c>
       <c r="R15">
-        <v>20.27619557922926</v>
+        <v>0.5613493855080001</v>
       </c>
       <c r="S15">
-        <v>0.07921113051977816</v>
+        <v>0.0002019023477500471</v>
       </c>
       <c r="T15">
-        <v>0.07921113051977816</v>
+        <v>0.0002019023477500471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>14.3240277786616</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H16">
-        <v>14.3240277786616</v>
+        <v>0.132086</v>
       </c>
       <c r="I16">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="J16">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.920836136606808</v>
+        <v>1.120205333333333</v>
       </c>
       <c r="N16">
-        <v>0.920836136606808</v>
+        <v>3.360616</v>
       </c>
       <c r="O16">
-        <v>0.07726765435239391</v>
+        <v>0.08544556218620403</v>
       </c>
       <c r="P16">
-        <v>0.07726765435239391</v>
+        <v>0.08544556218620403</v>
       </c>
       <c r="Q16">
-        <v>13.19008240035135</v>
+        <v>0.04932114721955556</v>
       </c>
       <c r="R16">
-        <v>13.19008240035135</v>
+        <v>0.443890324976</v>
       </c>
       <c r="S16">
-        <v>0.05152847014610294</v>
+        <v>0.0001596554678243404</v>
       </c>
       <c r="T16">
-        <v>0.05152847014610294</v>
+        <v>0.0001596554678243405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>14.3240277786616</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H17">
-        <v>14.3240277786616</v>
+        <v>0.132086</v>
       </c>
       <c r="I17">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="J17">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.02198372283493</v>
+        <v>1.043579</v>
       </c>
       <c r="N17">
-        <v>1.02198372283493</v>
+        <v>3.130737</v>
       </c>
       <c r="O17">
-        <v>0.08575498062094439</v>
+        <v>0.07960075861751234</v>
       </c>
       <c r="P17">
-        <v>0.08575498062094439</v>
+        <v>0.07960075861751234</v>
       </c>
       <c r="Q17">
-        <v>14.63892323522754</v>
+        <v>0.04594739193133333</v>
       </c>
       <c r="R17">
-        <v>14.63892323522754</v>
+        <v>0.413526527382</v>
       </c>
       <c r="S17">
-        <v>0.05718852210335106</v>
+        <v>0.0001487344226088229</v>
       </c>
       <c r="T17">
-        <v>0.05718852210335106</v>
+        <v>0.000148734422608823</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>14.3240277786616</v>
+        <v>0.04402866666666667</v>
       </c>
       <c r="H18">
-        <v>14.3240277786616</v>
+        <v>0.132086</v>
       </c>
       <c r="I18">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="J18">
-        <v>0.6668828059811095</v>
+        <v>0.001868505089549499</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.67391341708231</v>
+        <v>7.109867</v>
       </c>
       <c r="N18">
-        <v>6.67391341708231</v>
+        <v>21.329601</v>
       </c>
       <c r="O18">
-        <v>0.5600102065815339</v>
+        <v>0.5423171670468806</v>
       </c>
       <c r="P18">
-        <v>0.5600102065815339</v>
+        <v>0.5423171670468806</v>
       </c>
       <c r="Q18">
-        <v>95.59732117866936</v>
+        <v>0.3130379641873334</v>
       </c>
       <c r="R18">
-        <v>95.59732117866936</v>
+        <v>2.817341677686</v>
       </c>
       <c r="S18">
-        <v>0.3734611779431541</v>
+        <v>0.001013322386777162</v>
       </c>
       <c r="T18">
-        <v>0.3734611779431541</v>
+        <v>0.001013322386777162</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04402866666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.132086</v>
+      </c>
+      <c r="I19">
+        <v>0.001868505089549499</v>
+      </c>
+      <c r="J19">
+        <v>0.001868505089549499</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.954623</v>
+      </c>
+      <c r="N19">
+        <v>5.863868999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1490921852693833</v>
+      </c>
+      <c r="P19">
+        <v>0.1490921852693833</v>
+      </c>
+      <c r="Q19">
+        <v>0.08605944452599999</v>
+      </c>
+      <c r="R19">
+        <v>0.7745350007339999</v>
+      </c>
+      <c r="S19">
+        <v>0.0002785795069878996</v>
+      </c>
+      <c r="T19">
+        <v>0.0002785795069878996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.15701</v>
+      </c>
+      <c r="H20">
+        <v>0.4710299999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="J20">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.4652636666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.395791</v>
+      </c>
+      <c r="O20">
+        <v>0.03548877547730651</v>
+      </c>
+      <c r="P20">
+        <v>0.03548877547730651</v>
+      </c>
+      <c r="Q20">
+        <v>0.07305104830333332</v>
+      </c>
+      <c r="R20">
+        <v>0.6574594347299999</v>
+      </c>
+      <c r="S20">
+        <v>0.0002364705597785215</v>
+      </c>
+      <c r="T20">
+        <v>0.0002364705597785215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.15701</v>
+      </c>
+      <c r="H21">
+        <v>0.4710299999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="J21">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.416626</v>
+      </c>
+      <c r="N21">
+        <v>4.249878</v>
+      </c>
+      <c r="O21">
+        <v>0.1080555514027132</v>
+      </c>
+      <c r="P21">
+        <v>0.1080555514027132</v>
+      </c>
+      <c r="Q21">
+        <v>0.22242444826</v>
+      </c>
+      <c r="R21">
+        <v>2.00182003434</v>
+      </c>
+      <c r="S21">
+        <v>0.0007200010815734043</v>
+      </c>
+      <c r="T21">
+        <v>0.0007200010815734043</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.15701</v>
+      </c>
+      <c r="H22">
+        <v>0.4710299999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="J22">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.120205333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.360616</v>
+      </c>
+      <c r="O22">
+        <v>0.08544556218620403</v>
+      </c>
+      <c r="P22">
+        <v>0.08544556218620403</v>
+      </c>
+      <c r="Q22">
+        <v>0.1758834393866666</v>
+      </c>
+      <c r="R22">
+        <v>1.58295095448</v>
+      </c>
+      <c r="S22">
+        <v>0.0005693450858478496</v>
+      </c>
+      <c r="T22">
+        <v>0.0005693450858478496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.15701</v>
+      </c>
+      <c r="H23">
+        <v>0.4710299999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="J23">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.043579</v>
+      </c>
+      <c r="N23">
+        <v>3.130737</v>
+      </c>
+      <c r="O23">
+        <v>0.07960075861751234</v>
+      </c>
+      <c r="P23">
+        <v>0.07960075861751234</v>
+      </c>
+      <c r="Q23">
+        <v>0.16385233879</v>
+      </c>
+      <c r="R23">
+        <v>1.47467104911</v>
+      </c>
+      <c r="S23">
+        <v>0.0005303997023260138</v>
+      </c>
+      <c r="T23">
+        <v>0.0005303997023260138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.15701</v>
+      </c>
+      <c r="H24">
+        <v>0.4710299999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="J24">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.109867</v>
+      </c>
+      <c r="N24">
+        <v>21.329601</v>
+      </c>
+      <c r="O24">
+        <v>0.5423171670468806</v>
+      </c>
+      <c r="P24">
+        <v>0.5423171670468806</v>
+      </c>
+      <c r="Q24">
+        <v>1.11632021767</v>
+      </c>
+      <c r="R24">
+        <v>10.04688195903</v>
+      </c>
+      <c r="S24">
+        <v>0.003613594505425607</v>
+      </c>
+      <c r="T24">
+        <v>0.003613594505425607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.15701</v>
+      </c>
+      <c r="H25">
+        <v>0.4710299999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="J25">
+        <v>0.006663249340054967</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.954623</v>
+      </c>
+      <c r="N25">
+        <v>5.863868999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1490921852693833</v>
+      </c>
+      <c r="P25">
+        <v>0.1490921852693833</v>
+      </c>
+      <c r="Q25">
+        <v>0.3068953572299999</v>
+      </c>
+      <c r="R25">
+        <v>2.762058215069999</v>
+      </c>
+      <c r="S25">
+        <v>0.0009934384051035715</v>
+      </c>
+      <c r="T25">
+        <v>0.0009934384051035715</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.157008</v>
+      </c>
+      <c r="H26">
+        <v>48.471024</v>
+      </c>
+      <c r="I26">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="J26">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4652636666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.395791</v>
+      </c>
+      <c r="O26">
+        <v>0.03548877547730651</v>
+      </c>
+      <c r="P26">
+        <v>0.03548877547730651</v>
+      </c>
+      <c r="Q26">
+        <v>7.517268784442668</v>
+      </c>
+      <c r="R26">
+        <v>67.655419059984</v>
+      </c>
+      <c r="S26">
+        <v>0.02433384323359054</v>
+      </c>
+      <c r="T26">
+        <v>0.02433384323359054</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>16.157008</v>
+      </c>
+      <c r="H27">
+        <v>48.471024</v>
+      </c>
+      <c r="I27">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="J27">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.416626</v>
+      </c>
+      <c r="N27">
+        <v>4.249878</v>
+      </c>
+      <c r="O27">
+        <v>0.1080555514027132</v>
+      </c>
+      <c r="P27">
+        <v>0.1080555514027132</v>
+      </c>
+      <c r="Q27">
+        <v>22.888437615008</v>
+      </c>
+      <c r="R27">
+        <v>205.995938535072</v>
+      </c>
+      <c r="S27">
+        <v>0.07409122498560695</v>
+      </c>
+      <c r="T27">
+        <v>0.07409122498560695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>14.3240277786616</v>
-      </c>
-      <c r="H19">
-        <v>14.3240277786616</v>
-      </c>
-      <c r="I19">
-        <v>0.6668828059811095</v>
-      </c>
-      <c r="J19">
-        <v>0.6668828059811095</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.50146198489797</v>
-      </c>
-      <c r="N19">
-        <v>1.50146198489797</v>
-      </c>
-      <c r="O19">
-        <v>0.1259881547436416</v>
-      </c>
-      <c r="P19">
-        <v>0.1259881547436416</v>
-      </c>
-      <c r="Q19">
-        <v>21.50698318028291</v>
-      </c>
-      <c r="R19">
-        <v>21.50698318028291</v>
-      </c>
-      <c r="S19">
-        <v>0.08401933415582195</v>
-      </c>
-      <c r="T19">
-        <v>0.08401933415582195</v>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>16.157008</v>
+      </c>
+      <c r="H28">
+        <v>48.471024</v>
+      </c>
+      <c r="I28">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="J28">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.120205333333333</v>
+      </c>
+      <c r="N28">
+        <v>3.360616</v>
+      </c>
+      <c r="O28">
+        <v>0.08544556218620403</v>
+      </c>
+      <c r="P28">
+        <v>0.08544556218620403</v>
+      </c>
+      <c r="Q28">
+        <v>18.09916653230933</v>
+      </c>
+      <c r="R28">
+        <v>162.892498790784</v>
+      </c>
+      <c r="S28">
+        <v>0.05858807150375387</v>
+      </c>
+      <c r="T28">
+        <v>0.05858807150375387</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>16.157008</v>
+      </c>
+      <c r="H29">
+        <v>48.471024</v>
+      </c>
+      <c r="I29">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="J29">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.043579</v>
+      </c>
+      <c r="N29">
+        <v>3.130737</v>
+      </c>
+      <c r="O29">
+        <v>0.07960075861751234</v>
+      </c>
+      <c r="P29">
+        <v>0.07960075861751234</v>
+      </c>
+      <c r="Q29">
+        <v>16.861114251632</v>
+      </c>
+      <c r="R29">
+        <v>151.750028264688</v>
+      </c>
+      <c r="S29">
+        <v>0.05458042311750223</v>
+      </c>
+      <c r="T29">
+        <v>0.05458042311750223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>16.157008</v>
+      </c>
+      <c r="H30">
+        <v>48.471024</v>
+      </c>
+      <c r="I30">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="J30">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>7.109867</v>
+      </c>
+      <c r="N30">
+        <v>21.329601</v>
+      </c>
+      <c r="O30">
+        <v>0.5423171670468806</v>
+      </c>
+      <c r="P30">
+        <v>0.5423171670468806</v>
+      </c>
+      <c r="Q30">
+        <v>114.874177997936</v>
+      </c>
+      <c r="R30">
+        <v>1033.867601981424</v>
+      </c>
+      <c r="S30">
+        <v>0.3718545018337531</v>
+      </c>
+      <c r="T30">
+        <v>0.3718545018337531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>16.157008</v>
+      </c>
+      <c r="H31">
+        <v>48.471024</v>
+      </c>
+      <c r="I31">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="J31">
+        <v>0.6856771727486328</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.954623</v>
+      </c>
+      <c r="N31">
+        <v>5.863868999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.1490921852693833</v>
+      </c>
+      <c r="P31">
+        <v>0.1490921852693833</v>
+      </c>
+      <c r="Q31">
+        <v>31.580859447984</v>
+      </c>
+      <c r="R31">
+        <v>284.227735031856</v>
+      </c>
+      <c r="S31">
+        <v>0.1022291080744261</v>
+      </c>
+      <c r="T31">
+        <v>0.1022291080744261</v>
       </c>
     </row>
   </sheetData>
